--- a/Tiles/Tiles.xlsx
+++ b/Tiles/Tiles.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiU\TSEA83\ZigSound\Tiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16305" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16305" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blunicorn" sheetId="1" r:id="rId1"/>
+    <sheet name="Tree 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="3">
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -44,6 +59,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFECC17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF56CCF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4EB2D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4075BB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -75,16 +114,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4075BB"/>
+      <color rgb="FF400000"/>
+      <color rgb="FF4EB2D6"/>
+      <color rgb="FF56CCF4"/>
+      <color rgb="FFFECC17"/>
+      <color rgb="FFFBF237"/>
+      <color rgb="FFFFFA16"/>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -359,10 +414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +442,9 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -399,11 +457,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -416,11 +478,19 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -433,6 +503,528 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>97</v>
+      </c>
+      <c r="O6" s="5">
+        <v>97</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5">
+        <v>97</v>
+      </c>
+      <c r="E16" s="5">
+        <v>97</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="5">
+        <v>97</v>
+      </c>
+      <c r="L16" s="5">
+        <v>97</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -443,14 +1035,14 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -461,14 +1053,14 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -479,14 +1071,14 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -497,14 +1089,14 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>

--- a/Tiles/Tiles.xlsx
+++ b/Tiles/Tiles.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiU\TSEA83\ZigSound\Tiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="978"/>
   </bookViews>
   <sheets>
-    <sheet name="Grass" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Blunicorn" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Grass" sheetId="1" r:id="rId1"/>
+    <sheet name="Blunicorn" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="4">
   <si>
     <t>F8</t>
   </si>
@@ -26,15 +30,15 @@
   <si>
     <t>9B</t>
   </si>
+  <si>
+    <t>D6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -42,23 +46,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,86 +84,76 @@
         <bgColor rgb="FF56CCF4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A993C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0BF83"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A6F31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EC63F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -233,345 +212,1126 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF8AD66C"/>
+      <color rgb="FF8EC63F"/>
+      <color rgb="FF3A6F31"/>
+      <color rgb="FFA0BF83"/>
+      <color rgb="FF5A993C"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.72959183673469"/>
+    <col min="1" max="16" width="5.7109375"/>
+    <col min="17" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7">
+        <v>92</v>
+      </c>
+      <c r="D1" s="7">
+        <v>92</v>
+      </c>
+      <c r="E1" s="7">
+        <v>92</v>
+      </c>
+      <c r="F1" s="10">
+        <v>96</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="10">
+        <v>96</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10">
+        <v>96</v>
+      </c>
+      <c r="M1" s="10">
+        <v>96</v>
+      </c>
+      <c r="N1" s="10">
+        <v>96</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>96</v>
+      </c>
+      <c r="C2" s="10">
+        <v>96</v>
+      </c>
+      <c r="D2" s="7">
+        <v>92</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>96</v>
+      </c>
+      <c r="I2" s="10">
+        <v>96</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10">
+        <v>96</v>
+      </c>
+      <c r="L2" s="10">
+        <v>96</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="10">
+        <v>96</v>
+      </c>
+      <c r="P2" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>92</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>96</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>92</v>
+      </c>
+      <c r="G3" s="7">
+        <v>92</v>
+      </c>
+      <c r="H3" s="10">
+        <v>96</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>92</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="10">
+        <v>96</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>92</v>
+      </c>
+      <c r="B4" s="7">
+        <v>92</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>96</v>
+      </c>
+      <c r="I4" s="7">
+        <v>92</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>92</v>
+      </c>
+      <c r="O4" s="10">
+        <v>96</v>
+      </c>
+      <c r="P4" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>96</v>
+      </c>
+      <c r="B5" s="10">
+        <v>96</v>
+      </c>
+      <c r="C5" s="7">
+        <v>92</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10">
+        <v>96</v>
+      </c>
+      <c r="F5" s="10">
+        <v>96</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10">
+        <v>96</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>92</v>
+      </c>
+      <c r="K5" s="7">
+        <v>92</v>
+      </c>
+      <c r="L5" s="10">
+        <v>96</v>
+      </c>
+      <c r="M5" s="10">
+        <v>96</v>
+      </c>
+      <c r="N5" s="7">
+        <v>92</v>
+      </c>
+      <c r="O5" s="10">
+        <v>96</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>92</v>
+      </c>
+      <c r="B6" s="10">
+        <v>96</v>
+      </c>
+      <c r="C6" s="7">
+        <v>92</v>
+      </c>
+      <c r="D6" s="7">
+        <v>92</v>
+      </c>
+      <c r="E6" s="7">
+        <v>92</v>
+      </c>
+      <c r="F6" s="10">
+        <v>96</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>96</v>
+      </c>
+      <c r="I6" s="7">
+        <v>92</v>
+      </c>
+      <c r="J6" s="10">
+        <v>96</v>
+      </c>
+      <c r="K6" s="10">
+        <v>96</v>
+      </c>
+      <c r="L6" s="7">
+        <v>92</v>
+      </c>
+      <c r="M6" s="10">
+        <v>96</v>
+      </c>
+      <c r="N6" s="10">
+        <v>96</v>
+      </c>
+      <c r="O6" s="7">
+        <v>92</v>
+      </c>
+      <c r="P6" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>96</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>96</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>96</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10">
+        <v>96</v>
+      </c>
+      <c r="J7" s="7">
+        <v>92</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>96</v>
+      </c>
+      <c r="M7" s="10">
+        <v>96</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7">
+        <v>92</v>
+      </c>
+      <c r="P7" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10">
+        <v>96</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>96</v>
+      </c>
+      <c r="E8" s="7">
+        <v>92</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>92</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>96</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>92</v>
+      </c>
+      <c r="M8" s="10">
+        <v>96</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="10">
+        <v>96</v>
+      </c>
+      <c r="P8" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <v>96</v>
+      </c>
+      <c r="C9" s="10">
+        <v>96</v>
+      </c>
+      <c r="D9" s="10">
+        <v>96</v>
+      </c>
+      <c r="E9" s="7">
+        <v>92</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>92</v>
+      </c>
+      <c r="H9" s="10">
+        <v>96</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7">
+        <v>92</v>
+      </c>
+      <c r="K9" s="10">
+        <v>96</v>
+      </c>
+      <c r="L9" s="7">
+        <v>92</v>
+      </c>
+      <c r="M9" s="7">
+        <v>92</v>
+      </c>
+      <c r="N9" s="10">
+        <v>96</v>
+      </c>
+      <c r="O9" s="10">
+        <v>96</v>
+      </c>
+      <c r="P9" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>96</v>
+      </c>
+      <c r="B10" s="10">
+        <v>96</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>96</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10">
+        <v>96</v>
+      </c>
+      <c r="H10" s="7">
+        <v>92</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>96</v>
+      </c>
+      <c r="K10" s="10">
+        <v>96</v>
+      </c>
+      <c r="L10" s="10">
+        <v>96</v>
+      </c>
+      <c r="M10" s="10">
+        <v>96</v>
+      </c>
+      <c r="N10" s="7">
+        <v>92</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>96</v>
+      </c>
+      <c r="C11" s="10">
+        <v>96</v>
+      </c>
+      <c r="D11" s="10">
+        <v>96</v>
+      </c>
+      <c r="E11" s="10">
+        <v>96</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>92</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>92</v>
+      </c>
+      <c r="K11" s="10">
+        <v>96</v>
+      </c>
+      <c r="L11" s="10">
+        <v>96</v>
+      </c>
+      <c r="M11" s="7">
+        <v>92</v>
+      </c>
+      <c r="N11" s="10">
+        <v>96</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>96</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>96</v>
+      </c>
+      <c r="D12" s="10">
+        <v>96</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>96</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>96</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
+        <v>96</v>
+      </c>
+      <c r="K12" s="7">
+        <v>92</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="10">
+        <v>96</v>
+      </c>
+      <c r="N12" s="10">
+        <v>96</v>
+      </c>
+      <c r="O12" s="10">
+        <v>96</v>
+      </c>
+      <c r="P12" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>96</v>
+      </c>
+      <c r="B13" s="10">
+        <v>96</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>96</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>96</v>
+      </c>
+      <c r="G13" s="10">
+        <v>96</v>
+      </c>
+      <c r="H13" s="10">
+        <v>96</v>
+      </c>
+      <c r="I13" s="10">
+        <v>96</v>
+      </c>
+      <c r="J13" s="10">
+        <v>96</v>
+      </c>
+      <c r="K13" s="7">
+        <v>92</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="10">
+        <v>96</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10">
+        <v>96</v>
+      </c>
+      <c r="P13" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>96</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>96</v>
+      </c>
+      <c r="E14" s="10">
+        <v>96</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>96</v>
+      </c>
+      <c r="H14" s="7">
+        <v>92</v>
+      </c>
+      <c r="I14" s="10">
+        <v>96</v>
+      </c>
+      <c r="J14" s="10">
+        <v>96</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>92</v>
+      </c>
+      <c r="O14" s="10">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10">
+        <v>96</v>
+      </c>
+      <c r="C15" s="10">
+        <v>96</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>96</v>
+      </c>
+      <c r="F15" s="10">
+        <v>96</v>
+      </c>
+      <c r="G15" s="10">
+        <v>96</v>
+      </c>
+      <c r="H15" s="7">
+        <v>92</v>
+      </c>
+      <c r="I15" s="7">
+        <v>92</v>
+      </c>
+      <c r="J15" s="10">
+        <v>96</v>
+      </c>
+      <c r="K15" s="10">
+        <v>96</v>
+      </c>
+      <c r="L15" s="7">
+        <v>92</v>
+      </c>
+      <c r="M15" s="7">
+        <v>92</v>
+      </c>
+      <c r="N15" s="10">
+        <v>96</v>
+      </c>
+      <c r="O15" s="10">
+        <v>96</v>
+      </c>
+      <c r="P15" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>96</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>96</v>
+      </c>
+      <c r="F16" s="10">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>96</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="10">
+        <v>96</v>
+      </c>
+      <c r="L16" s="10">
+        <v>96</v>
+      </c>
+      <c r="M16" s="10">
+        <v>96</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.72959183673469"/>
+    <col min="1" max="16" width="5.7109375"/>
+    <col min="17" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -591,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -613,7 +1373,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -639,7 +1399,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -667,7 +1427,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
@@ -703,7 +1463,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -737,15 +1497,15 @@
       <c r="M6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="6">
         <v>97</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="6">
         <v>97</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -789,7 +1549,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
@@ -831,7 +1591,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -873,7 +1633,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -913,7 +1673,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -949,7 +1709,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -985,7 +1745,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1011,7 +1771,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1037,7 +1797,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1063,14 +1823,14 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>97</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>97</v>
       </c>
       <c r="F16" s="1"/>
@@ -1078,10 +1838,10 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="6">
         <v>97</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>97</v>
       </c>
       <c r="M16" s="1"/>
@@ -1090,12 +1850,7 @@
       <c r="P16" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Tiles/Tiles.xlsx
+++ b/Tiles/Tiles.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="978"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="978" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Grass" sheetId="1" r:id="rId1"/>
     <sheet name="Blunicorn" sheetId="2" r:id="rId2"/>
+    <sheet name="Tree 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Tree 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="6">
   <si>
     <t>F8</t>
   </si>
@@ -33,12 +35,18 @@
   <si>
     <t>D6</t>
   </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -46,8 +54,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +122,72 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CC63E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339F41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007B45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF026C0B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76AD63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009345"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF41210A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF603814"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8C7968"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3E2B24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -136,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -148,6 +228,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,11 +314,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="FF8AD66C"/>
-      <color rgb="FF8EC63F"/>
-      <color rgb="FF3A6F31"/>
-      <color rgb="FFA0BF83"/>
-      <color rgb="FF5A993C"/>
+      <color rgb="FF76AD63"/>
+      <color rgb="FF026C0B"/>
+      <color rgb="FF339F41"/>
+      <color rgb="FF8CC63E"/>
+      <color rgb="FF007B45"/>
+      <color rgb="FF009345"/>
+      <color rgb="FF3E2B24"/>
+      <color rgb="FF8C7968"/>
+      <color rgb="FF603814"/>
+      <color rgb="FF41210A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -505,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,4 +1950,1205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="11">
+        <v>96</v>
+      </c>
+      <c r="G1" s="11">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="11">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="11">
+        <v>96</v>
+      </c>
+      <c r="E2" s="11">
+        <v>96</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11">
+        <v>96</v>
+      </c>
+      <c r="I2" s="11">
+        <v>96</v>
+      </c>
+      <c r="J2" s="11">
+        <v>96</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="17">
+        <v>12</v>
+      </c>
+      <c r="M2" s="17">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="13">
+        <v>92</v>
+      </c>
+      <c r="E3" s="13">
+        <v>92</v>
+      </c>
+      <c r="F3" s="11">
+        <v>96</v>
+      </c>
+      <c r="G3" s="11">
+        <v>96</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="13">
+        <v>92</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="11">
+        <v>96</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="17">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="11">
+        <v>96</v>
+      </c>
+      <c r="D4" s="13">
+        <v>92</v>
+      </c>
+      <c r="E4" s="11">
+        <v>96</v>
+      </c>
+      <c r="F4" s="15">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11">
+        <v>96</v>
+      </c>
+      <c r="H4" s="13">
+        <v>92</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11">
+        <v>96</v>
+      </c>
+      <c r="K4" s="13">
+        <v>92</v>
+      </c>
+      <c r="L4" s="15">
+        <v>18</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="17">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="11">
+        <v>96</v>
+      </c>
+      <c r="C5" s="13">
+        <v>92</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>96</v>
+      </c>
+      <c r="G5" s="13">
+        <v>92</v>
+      </c>
+      <c r="H5" s="15">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
+        <v>96</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="15">
+        <v>18</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="15">
+        <v>18</v>
+      </c>
+      <c r="N5" s="17">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="13">
+        <v>92</v>
+      </c>
+      <c r="C6" s="13">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11">
+        <v>96</v>
+      </c>
+      <c r="E6" s="11">
+        <v>96</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13">
+        <v>92</v>
+      </c>
+      <c r="H6" s="15">
+        <v>18</v>
+      </c>
+      <c r="I6" s="13">
+        <v>92</v>
+      </c>
+      <c r="J6" s="13">
+        <v>92</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="15">
+        <v>18</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="17">
+        <v>12</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11">
+        <v>96</v>
+      </c>
+      <c r="C7" s="13">
+        <v>92</v>
+      </c>
+      <c r="D7" s="13">
+        <v>92</v>
+      </c>
+      <c r="E7" s="13">
+        <v>92</v>
+      </c>
+      <c r="F7" s="13">
+        <v>92</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="13">
+        <v>92</v>
+      </c>
+      <c r="I7" s="15">
+        <v>18</v>
+      </c>
+      <c r="J7" s="15">
+        <v>18</v>
+      </c>
+      <c r="K7" s="13">
+        <v>92</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="15">
+        <v>18</v>
+      </c>
+      <c r="N7" s="15">
+        <v>18</v>
+      </c>
+      <c r="O7" s="15">
+        <v>18</v>
+      </c>
+      <c r="P7" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="13">
+        <v>92</v>
+      </c>
+      <c r="C8" s="11">
+        <v>96</v>
+      </c>
+      <c r="D8" s="13">
+        <v>92</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13">
+        <v>92</v>
+      </c>
+      <c r="G8" s="13">
+        <v>92</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13">
+        <v>92</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="15">
+        <v>18</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="15">
+        <v>18</v>
+      </c>
+      <c r="P8" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>92</v>
+      </c>
+      <c r="B9" s="11">
+        <v>96</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13">
+        <v>92</v>
+      </c>
+      <c r="F9" s="13">
+        <v>92</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="15">
+        <v>18</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="15">
+        <v>18</v>
+      </c>
+      <c r="K9" s="15">
+        <v>18</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="13">
+        <v>92</v>
+      </c>
+      <c r="N9" s="15">
+        <v>18</v>
+      </c>
+      <c r="O9" s="17">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="13">
+        <v>92</v>
+      </c>
+      <c r="C10" s="13">
+        <v>92</v>
+      </c>
+      <c r="D10" s="13">
+        <v>92</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15">
+        <v>18</v>
+      </c>
+      <c r="H10" s="15">
+        <v>18</v>
+      </c>
+      <c r="I10" s="15">
+        <v>18</v>
+      </c>
+      <c r="J10" s="15">
+        <v>18</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="13">
+        <v>92</v>
+      </c>
+      <c r="M10" s="15">
+        <v>18</v>
+      </c>
+      <c r="N10" s="15">
+        <v>18</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="13">
+        <v>92</v>
+      </c>
+      <c r="D11" s="13">
+        <v>92</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15">
+        <v>18</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="18">
+        <v>90</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="15">
+        <v>18</v>
+      </c>
+      <c r="M11" s="15">
+        <v>18</v>
+      </c>
+      <c r="N11" s="17">
+        <v>12</v>
+      </c>
+      <c r="O11" s="17">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="13">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="15">
+        <v>18</v>
+      </c>
+      <c r="I12" s="18">
+        <v>90</v>
+      </c>
+      <c r="J12" s="17">
+        <v>12</v>
+      </c>
+      <c r="K12" s="15">
+        <v>18</v>
+      </c>
+      <c r="L12" s="17">
+        <v>12</v>
+      </c>
+      <c r="M12" s="17">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="18">
+        <v>90</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="17">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="18">
+        <v>90</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="18">
+        <v>90</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="18">
+        <v>90</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="18">
+        <v>90</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="11">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="11">
+        <v>96</v>
+      </c>
+      <c r="F2" s="11">
+        <v>96</v>
+      </c>
+      <c r="G2" s="13">
+        <v>92</v>
+      </c>
+      <c r="H2" s="11">
+        <v>96</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="11">
+        <v>96</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="11">
+        <v>96</v>
+      </c>
+      <c r="D3" s="13">
+        <v>92</v>
+      </c>
+      <c r="E3" s="15">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13">
+        <v>92</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13">
+        <v>92</v>
+      </c>
+      <c r="I3" s="11">
+        <v>96</v>
+      </c>
+      <c r="J3" s="13">
+        <v>92</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="13">
+        <v>92</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="11">
+        <v>96</v>
+      </c>
+      <c r="C4" s="11">
+        <v>96</v>
+      </c>
+      <c r="D4" s="13">
+        <v>92</v>
+      </c>
+      <c r="E4" s="15">
+        <v>18</v>
+      </c>
+      <c r="F4" s="15">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11">
+        <v>96</v>
+      </c>
+      <c r="H4" s="13">
+        <v>92</v>
+      </c>
+      <c r="I4" s="22">
+        <v>18</v>
+      </c>
+      <c r="J4" s="22">
+        <v>18</v>
+      </c>
+      <c r="K4" s="13">
+        <v>92</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="13">
+        <v>92</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="11">
+        <v>96</v>
+      </c>
+      <c r="C5" s="13">
+        <v>92</v>
+      </c>
+      <c r="D5" s="15">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11">
+        <v>96</v>
+      </c>
+      <c r="F5" s="15">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13">
+        <v>92</v>
+      </c>
+      <c r="H5" s="22">
+        <v>18</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="13">
+        <v>92</v>
+      </c>
+      <c r="K5" s="22">
+        <v>18</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="15">
+        <v>18</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>96</v>
+      </c>
+      <c r="B6" s="13">
+        <v>92</v>
+      </c>
+      <c r="C6" s="11">
+        <v>96</v>
+      </c>
+      <c r="D6" s="15">
+        <v>18</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13">
+        <v>92</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="13">
+        <v>92</v>
+      </c>
+      <c r="J6" s="22">
+        <v>18</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="15">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>92</v>
+      </c>
+      <c r="B7" s="15">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15">
+        <v>18</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11">
+        <v>96</v>
+      </c>
+      <c r="F7" s="11">
+        <v>96</v>
+      </c>
+      <c r="G7" s="15">
+        <v>18</v>
+      </c>
+      <c r="H7" s="13">
+        <v>92</v>
+      </c>
+      <c r="I7" s="13">
+        <v>92</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="13">
+        <v>92</v>
+      </c>
+      <c r="L7" s="15">
+        <v>18</v>
+      </c>
+      <c r="M7" s="15">
+        <v>18</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11">
+        <v>96</v>
+      </c>
+      <c r="C8" s="13">
+        <v>92</v>
+      </c>
+      <c r="D8" s="11">
+        <v>96</v>
+      </c>
+      <c r="E8" s="15">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15">
+        <v>18</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13">
+        <v>92</v>
+      </c>
+      <c r="K8" s="15">
+        <v>18</v>
+      </c>
+      <c r="L8" s="15">
+        <v>18</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="13">
+        <v>92</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="11">
+        <v>96</v>
+      </c>
+      <c r="C9" s="13">
+        <v>92</v>
+      </c>
+      <c r="D9" s="13">
+        <v>92</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="15">
+        <v>18</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="15">
+        <v>18</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="13">
+        <v>92</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="11">
+        <v>96</v>
+      </c>
+      <c r="D10" s="13">
+        <v>92</v>
+      </c>
+      <c r="E10" s="15">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15">
+        <v>18</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="15">
+        <v>18</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="15">
+        <v>18</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="13">
+        <v>92</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="13">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="21">
+        <v>90</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="15">
+        <v>18</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21">
+        <v>90</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="15">
+        <v>18</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
+        <v>90</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21">
+        <v>90</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21">
+        <v>90</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21">
+        <v>90</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tiles/Tiles.xlsx
+++ b/Tiles/Tiles.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="978" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="978" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Grass" sheetId="1" r:id="rId1"/>
     <sheet name="Blunicorn" sheetId="2" r:id="rId2"/>
     <sheet name="Tree 1" sheetId="3" r:id="rId3"/>
     <sheet name="Tree 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Rock" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="7">
   <si>
     <t>F8</t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t>D0</t>
+  </si>
+  <si>
+    <t>FF</t>
   </si>
 </sst>
 </file>
@@ -61,7 +65,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +192,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -216,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -239,6 +255,8 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -314,8 +332,8 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF026C0B"/>
       <color rgb="FF76AD63"/>
-      <color rgb="FF026C0B"/>
       <color rgb="FF339F41"/>
       <color rgb="FF8CC63E"/>
       <color rgb="FF007B45"/>
@@ -1419,7 +1437,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1975,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2076,9 @@
       <c r="L3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="15">
+        <v>18</v>
+      </c>
       <c r="N3" s="17">
         <v>12</v>
       </c>
@@ -2574,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,30 +2604,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G1" s="11">
         <v>96</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="11">
         <v>96</v>
       </c>
@@ -2626,16 +2684,32 @@
       <c r="J2" s="11">
         <v>96</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="11">
         <v>96</v>
       </c>
@@ -2666,15 +2740,23 @@
       <c r="L3" s="13">
         <v>92</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="11">
         <v>96</v>
       </c>
@@ -2696,10 +2778,10 @@
       <c r="H4" s="13">
         <v>92</v>
       </c>
-      <c r="I4" s="22">
-        <v>18</v>
-      </c>
-      <c r="J4" s="22">
+      <c r="I4" s="24">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24">
         <v>18</v>
       </c>
       <c r="K4" s="13">
@@ -2714,11 +2796,17 @@
       <c r="N4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="11">
         <v>96</v>
       </c>
@@ -2737,7 +2825,7 @@
       <c r="G5" s="13">
         <v>92</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="24">
         <v>18</v>
       </c>
       <c r="I5" s="14" t="s">
@@ -2746,7 +2834,7 @@
       <c r="J5" s="13">
         <v>92</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="24">
         <v>18</v>
       </c>
       <c r="L5" s="16" t="s">
@@ -2758,8 +2846,12 @@
       <c r="N5" s="15">
         <v>18</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -2789,7 +2881,7 @@
       <c r="I6" s="13">
         <v>92</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="24">
         <v>18</v>
       </c>
       <c r="K6" s="16" t="s">
@@ -2801,9 +2893,15 @@
       <c r="M6" s="15">
         <v>19</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -2848,8 +2946,12 @@
       <c r="N7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -2897,10 +2999,14 @@
       <c r="O8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B9" s="11">
         <v>96</v>
       </c>
@@ -2940,12 +3046,20 @@
       <c r="N9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="11">
         <v>96</v>
       </c>
@@ -2982,16 +3096,26 @@
       <c r="N10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="13">
         <v>92</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>4</v>
       </c>
@@ -3019,20 +3143,38 @@
       <c r="M11" s="15">
         <v>18</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H12" s="20" t="s">
         <v>1</v>
       </c>
@@ -3051,17 +3193,35 @@
       <c r="M12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G13" s="20" t="s">
         <v>1</v>
       </c>
@@ -3071,81 +3231,996 @@
       <c r="I13" s="21">
         <v>90</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="L13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H14" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I14" s="21">
         <v>90</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H15" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I15" s="21">
         <v>90</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H16" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I16" s="21">
         <v>90</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tiles/Tiles.xlsx
+++ b/Tiles/Tiles.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="6"/>
+    <workbookView xWindow="11835" yWindow="135" windowWidth="12195" windowHeight="9975" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Grass" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Blunicorn" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tree 1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Tree 2" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Rock" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="goal flag" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Curr pos" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Grass" sheetId="1" r:id="rId1"/>
+    <sheet name="Blunicorn" sheetId="2" r:id="rId2"/>
+    <sheet name="Tree 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Tree 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Rock" sheetId="5" r:id="rId5"/>
+    <sheet name="goal flag" sheetId="6" r:id="rId6"/>
+    <sheet name="Curr pos" sheetId="7" r:id="rId7"/>
+    <sheet name="Curr pos grass" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="12">
   <si>
     <t>D6</t>
   </si>
@@ -49,36 +50,27 @@
   <si>
     <t>#FF</t>
   </si>
+  <si>
+    <t>x"E0",</t>
+  </si>
+  <si>
+    <t>x"00",</t>
+  </si>
+  <si>
+    <t>x"FF",</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -92,6 +84,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="24">
@@ -235,223 +232,249 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="svart" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Vitt" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="svart+vittext" xfId="22" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="16">
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF000000"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -510,45 +533,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3E2B24"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.70918367346939"/>
+    <col min="1" max="16" width="5.7109375"/>
+    <col min="17" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="F1" s="3" t="n">
+      <c r="C1" s="2">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3">
         <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -560,19 +876,19 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="3">
         <v>96</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M1" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="N1" s="3" t="n">
+      <c r="L1" s="3">
+        <v>96</v>
+      </c>
+      <c r="M1" s="3">
+        <v>96</v>
+      </c>
+      <c r="N1" s="3">
         <v>96</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -582,41 +898,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="B2" s="3">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2">
         <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>96</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="H2" s="3">
+        <v>96</v>
+      </c>
+      <c r="I2" s="3">
         <v>96</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L2" s="3" t="n">
+      <c r="K2" s="3">
+        <v>96</v>
+      </c>
+      <c r="L2" s="3">
         <v>96</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -625,15 +941,15 @@
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="O2" s="3">
+        <v>96</v>
+      </c>
+      <c r="P2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -642,19 +958,19 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="2">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2">
+        <v>92</v>
+      </c>
+      <c r="H3" s="3">
         <v>96</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -666,27 +982,27 @@
       <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="2">
         <v>92</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="3">
         <v>96</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="2" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="P3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2">
         <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -702,10 +1018,10 @@
       <c r="G4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="H4" s="3">
+        <v>96</v>
+      </c>
+      <c r="I4" s="2">
         <v>92</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -720,116 +1036,116 @@
       <c r="M4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="N4" s="2">
+        <v>92</v>
+      </c>
+      <c r="O4" s="3">
+        <v>96</v>
+      </c>
+      <c r="P4" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2">
         <v>92</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="3">
+        <v>96</v>
+      </c>
+      <c r="F5" s="3">
         <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>96</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="O5" s="3" t="n">
+      <c r="J5" s="2">
+        <v>92</v>
+      </c>
+      <c r="K5" s="2">
+        <v>92</v>
+      </c>
+      <c r="L5" s="3">
+        <v>96</v>
+      </c>
+      <c r="M5" s="3">
+        <v>96</v>
+      </c>
+      <c r="N5" s="2">
+        <v>92</v>
+      </c>
+      <c r="O5" s="3">
         <v>96</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="F6" s="3" t="n">
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2">
+        <v>92</v>
+      </c>
+      <c r="E6" s="2">
+        <v>92</v>
+      </c>
+      <c r="F6" s="3">
         <v>96</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="H6" s="3">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2">
+        <v>92</v>
+      </c>
+      <c r="J6" s="3">
+        <v>96</v>
+      </c>
+      <c r="K6" s="3">
+        <v>96</v>
+      </c>
+      <c r="L6" s="2">
+        <v>92</v>
+      </c>
+      <c r="M6" s="3">
+        <v>96</v>
+      </c>
+      <c r="N6" s="3">
+        <v>96</v>
+      </c>
+      <c r="O6" s="2">
+        <v>92</v>
+      </c>
+      <c r="P6" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -838,13 +1154,13 @@
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>96</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>96</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -853,57 +1169,57 @@
       <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="J7" s="2" t="n">
+      <c r="I7" s="3">
+        <v>96</v>
+      </c>
+      <c r="J7" s="2">
         <v>92</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M7" s="3" t="n">
+      <c r="L7" s="3">
+        <v>96</v>
+      </c>
+      <c r="M7" s="3">
         <v>96</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O7" s="2">
+        <v>92</v>
+      </c>
+      <c r="P7" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="3">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2">
         <v>92</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>96</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -912,77 +1228,77 @@
       <c r="K8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="M8" s="3" t="n">
+      <c r="L8" s="2">
+        <v>92</v>
+      </c>
+      <c r="M8" s="3">
         <v>96</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O8" s="3">
+        <v>96</v>
+      </c>
+      <c r="P8" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="B9" s="3">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3">
+        <v>96</v>
+      </c>
+      <c r="D9" s="3">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2">
         <v>92</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="H9" s="3" t="n">
+      <c r="G9" s="2">
+        <v>92</v>
+      </c>
+      <c r="H9" s="3">
         <v>96</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="B10" s="3" t="n">
+      <c r="J9" s="2">
+        <v>92</v>
+      </c>
+      <c r="K9" s="3">
+        <v>96</v>
+      </c>
+      <c r="L9" s="2">
+        <v>92</v>
+      </c>
+      <c r="M9" s="2">
+        <v>92</v>
+      </c>
+      <c r="N9" s="3">
+        <v>96</v>
+      </c>
+      <c r="O9" s="3">
+        <v>96</v>
+      </c>
+      <c r="P9" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>96</v>
+      </c>
+      <c r="B10" s="3">
         <v>96</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -991,57 +1307,57 @@
       <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="G10" s="3">
+        <v>96</v>
+      </c>
+      <c r="H10" s="2">
         <v>92</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="N10" s="2" t="n">
+      <c r="J10" s="3">
+        <v>96</v>
+      </c>
+      <c r="K10" s="3">
+        <v>96</v>
+      </c>
+      <c r="L10" s="3">
+        <v>96</v>
+      </c>
+      <c r="M10" s="3">
+        <v>96</v>
+      </c>
+      <c r="N10" s="2">
         <v>92</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="3" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="P10" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="B11" s="3">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3">
+        <v>96</v>
+      </c>
+      <c r="D11" s="3">
+        <v>96</v>
+      </c>
+      <c r="E11" s="3">
         <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1050,136 +1366,136 @@
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>92</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="N11" s="3" t="n">
+      <c r="J11" s="2">
+        <v>92</v>
+      </c>
+      <c r="K11" s="3">
+        <v>96</v>
+      </c>
+      <c r="L11" s="3">
+        <v>96</v>
+      </c>
+      <c r="M11" s="2">
+        <v>92</v>
+      </c>
+      <c r="N11" s="3">
         <v>96</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P11" s="3" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="P11" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>96</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="C12" s="3">
+        <v>96</v>
+      </c>
+      <c r="D12" s="3">
         <v>96</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>96</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="3">
         <v>96</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="K12" s="2" t="n">
+      <c r="J12" s="3">
+        <v>96</v>
+      </c>
+      <c r="K12" s="2">
         <v>92</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="B13" s="3" t="n">
+      <c r="M12" s="3">
+        <v>96</v>
+      </c>
+      <c r="N12" s="3">
+        <v>96</v>
+      </c>
+      <c r="O12" s="3">
+        <v>96</v>
+      </c>
+      <c r="P12" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3">
         <v>96</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>96</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="K13" s="2" t="n">
+      <c r="F13" s="3">
+        <v>96</v>
+      </c>
+      <c r="G13" s="3">
+        <v>96</v>
+      </c>
+      <c r="H13" s="3">
+        <v>96</v>
+      </c>
+      <c r="I13" s="3">
+        <v>96</v>
+      </c>
+      <c r="J13" s="3">
+        <v>96</v>
+      </c>
+      <c r="K13" s="2">
         <v>92</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="3">
         <v>96</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O13" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="O13" s="3">
+        <v>96</v>
+      </c>
+      <c r="P13" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1188,25 +1504,25 @@
       <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="D14" s="3">
+        <v>96</v>
+      </c>
+      <c r="E14" s="3">
         <v>96</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="J14" s="3" t="n">
+      <c r="G14" s="3">
+        <v>96</v>
+      </c>
+      <c r="H14" s="2">
+        <v>92</v>
+      </c>
+      <c r="I14" s="3">
+        <v>96</v>
+      </c>
+      <c r="J14" s="3">
         <v>96</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1218,89 +1534,89 @@
       <c r="M14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="O14" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N14" s="2">
+        <v>92</v>
+      </c>
+      <c r="O14" s="3">
+        <v>96</v>
+      </c>
+      <c r="P14" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="C15" s="3" t="n">
+      <c r="B15" s="3">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3">
         <v>96</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="P15" s="3" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="3">
+        <v>96</v>
+      </c>
+      <c r="F15" s="3">
+        <v>96</v>
+      </c>
+      <c r="G15" s="3">
+        <v>96</v>
+      </c>
+      <c r="H15" s="2">
+        <v>92</v>
+      </c>
+      <c r="I15" s="2">
+        <v>92</v>
+      </c>
+      <c r="J15" s="3">
+        <v>96</v>
+      </c>
+      <c r="K15" s="3">
+        <v>96</v>
+      </c>
+      <c r="L15" s="2">
+        <v>92</v>
+      </c>
+      <c r="M15" s="2">
+        <v>92</v>
+      </c>
+      <c r="N15" s="3">
+        <v>96</v>
+      </c>
+      <c r="O15" s="3">
+        <v>96</v>
+      </c>
+      <c r="P15" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>96</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="E16" s="3">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3">
         <v>96</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="3">
         <v>96</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1309,13 +1625,13 @@
       <c r="J16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M16" s="3" t="n">
+      <c r="K16" s="3">
+        <v>96</v>
+      </c>
+      <c r="L16" s="3">
+        <v>96</v>
+      </c>
+      <c r="M16" s="3">
         <v>96</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -1329,34 +1645,24 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.70918367346939"/>
+    <col min="1" max="16" width="5.7109375"/>
+    <col min="17" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1376,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1398,7 +1704,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1424,7 +1730,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1452,7 +1758,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
@@ -1488,7 +1794,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>1</v>
@@ -1522,15 +1828,15 @@
       <c r="M6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="10" t="n">
+      <c r="N6" s="10">
         <v>97</v>
       </c>
-      <c r="O6" s="10" t="n">
+      <c r="O6" s="10">
         <v>97</v>
       </c>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
         <v>1</v>
@@ -1574,7 +1880,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
         <v>1</v>
@@ -1616,7 +1922,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
@@ -1658,7 +1964,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -1698,7 +2004,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1734,7 +2040,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1770,7 +2076,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1796,7 +2102,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1822,7 +2128,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1848,14 +2154,14 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="10">
         <v>97</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="10">
         <v>97</v>
       </c>
       <c r="F16" s="6"/>
@@ -1863,10 +2169,10 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="10">
         <v>97</v>
       </c>
-      <c r="L16" s="10" t="n">
+      <c r="L16" s="10">
         <v>97</v>
       </c>
       <c r="M16" s="6"/>
@@ -1875,49 +2181,39 @@
       <c r="P16" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.72959183673469"/>
+    <col min="1" max="16" width="5.7109375"/>
+    <col min="17" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="G1" s="11" t="n">
+      <c r="F1" s="11">
+        <v>96</v>
+      </c>
+      <c r="G1" s="11">
         <v>96</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="11" t="n">
+      <c r="K1" s="11">
         <v>96</v>
       </c>
       <c r="L1" s="6"/>
@@ -1926,14 +2222,14 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="E2" s="11" t="n">
+      <c r="D2" s="11">
+        <v>96</v>
+      </c>
+      <c r="E2" s="11">
         <v>96</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -1942,99 +2238,99 @@
       <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="I2" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="J2" s="11" t="n">
+      <c r="H2" s="11">
+        <v>96</v>
+      </c>
+      <c r="I2" s="11">
+        <v>96</v>
+      </c>
+      <c r="J2" s="11">
         <v>96</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="13">
         <v>12</v>
       </c>
-      <c r="M2" s="13" t="n">
+      <c r="M2" s="13">
         <v>12</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="E3" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="G3" s="11" t="n">
+      <c r="D3" s="14">
+        <v>92</v>
+      </c>
+      <c r="E3" s="14">
+        <v>92</v>
+      </c>
+      <c r="F3" s="11">
+        <v>96</v>
+      </c>
+      <c r="G3" s="11">
         <v>96</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="14">
         <v>92</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="11" t="n">
+      <c r="K3" s="11">
         <v>96</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="15" t="n">
+      <c r="M3" s="15">
         <v>18</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="13">
         <v>12</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="D4" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="E4" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="F4" s="15" t="n">
+      <c r="C4" s="11">
+        <v>96</v>
+      </c>
+      <c r="D4" s="14">
+        <v>92</v>
+      </c>
+      <c r="E4" s="11">
+        <v>96</v>
+      </c>
+      <c r="F4" s="15">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="H4" s="14" t="n">
+      <c r="G4" s="11">
+        <v>96</v>
+      </c>
+      <c r="H4" s="14">
         <v>92</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="K4" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="L4" s="15" t="n">
+      <c r="J4" s="11">
+        <v>96</v>
+      </c>
+      <c r="K4" s="14">
+        <v>92</v>
+      </c>
+      <c r="L4" s="15">
         <v>18</v>
       </c>
       <c r="M4" s="12" t="s">
@@ -2043,17 +2339,17 @@
       <c r="N4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="13" t="n">
+      <c r="O4" s="13">
         <v>12</v>
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="C5" s="14" t="n">
+      <c r="B5" s="11">
+        <v>96</v>
+      </c>
+      <c r="C5" s="14">
         <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -2062,69 +2358,69 @@
       <c r="E5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="G5" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="H5" s="15" t="n">
+      <c r="F5" s="11">
+        <v>96</v>
+      </c>
+      <c r="G5" s="14">
+        <v>92</v>
+      </c>
+      <c r="H5" s="15">
         <v>18</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="11">
         <v>96</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="n">
+      <c r="K5" s="15">
         <v>18</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="15" t="n">
+      <c r="M5" s="15">
         <v>18</v>
       </c>
-      <c r="N5" s="13" t="n">
+      <c r="N5" s="13">
         <v>12</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="C6" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" s="11" t="n">
+      <c r="B6" s="14">
+        <v>92</v>
+      </c>
+      <c r="C6" s="14">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11">
+        <v>96</v>
+      </c>
+      <c r="E6" s="11">
         <v>96</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="H6" s="15" t="n">
+      <c r="G6" s="14">
+        <v>92</v>
+      </c>
+      <c r="H6" s="15">
         <v>18</v>
       </c>
-      <c r="I6" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="J6" s="14" t="n">
+      <c r="I6" s="14">
+        <v>92</v>
+      </c>
+      <c r="J6" s="14">
         <v>92</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="15" t="n">
+      <c r="L6" s="15">
         <v>18</v>
       </c>
       <c r="M6" s="12" t="s">
@@ -2133,77 +2429,77 @@
       <c r="N6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="13" t="n">
+      <c r="O6" s="13">
         <v>12</v>
       </c>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="C7" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="D7" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="E7" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="F7" s="14" t="n">
+      <c r="B7" s="11">
+        <v>96</v>
+      </c>
+      <c r="C7" s="14">
+        <v>92</v>
+      </c>
+      <c r="D7" s="14">
+        <v>92</v>
+      </c>
+      <c r="E7" s="14">
+        <v>92</v>
+      </c>
+      <c r="F7" s="14">
         <v>92</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="I7" s="15" t="n">
+      <c r="H7" s="14">
+        <v>92</v>
+      </c>
+      <c r="I7" s="15">
         <v>18</v>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="J7" s="15">
         <v>18</v>
       </c>
-      <c r="K7" s="14" t="n">
+      <c r="K7" s="14">
         <v>92</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="15" t="n">
+      <c r="M7" s="15">
         <v>18</v>
       </c>
-      <c r="N7" s="15" t="n">
+      <c r="N7" s="15">
         <v>18</v>
       </c>
-      <c r="O7" s="15" t="n">
+      <c r="O7" s="15">
         <v>18</v>
       </c>
-      <c r="P7" s="13" t="n">
+      <c r="P7" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="C8" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="D8" s="14" t="n">
+      <c r="B8" s="14">
+        <v>92</v>
+      </c>
+      <c r="C8" s="11">
+        <v>96</v>
+      </c>
+      <c r="D8" s="14">
         <v>92</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="G8" s="14" t="n">
+      <c r="F8" s="14">
+        <v>92</v>
+      </c>
+      <c r="G8" s="14">
         <v>92</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -2212,13 +2508,13 @@
       <c r="I8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="14" t="n">
+      <c r="J8" s="14">
         <v>92</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="15" t="n">
+      <c r="L8" s="15">
         <v>18</v>
       </c>
       <c r="M8" s="12" t="s">
@@ -2227,18 +2523,18 @@
       <c r="N8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="15" t="n">
+      <c r="O8" s="15">
         <v>18</v>
       </c>
-      <c r="P8" s="13" t="n">
+      <c r="P8" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="B9" s="11" t="n">
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>92</v>
+      </c>
+      <c r="B9" s="11">
         <v>96</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2247,50 +2543,50 @@
       <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="F9" s="14" t="n">
+      <c r="E9" s="14">
+        <v>92</v>
+      </c>
+      <c r="F9" s="14">
         <v>92</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="15">
         <v>18</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="15">
         <v>18</v>
       </c>
-      <c r="K9" s="15" t="n">
+      <c r="K9" s="15">
         <v>18</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="N9" s="15" t="n">
+      <c r="M9" s="14">
+        <v>92</v>
+      </c>
+      <c r="N9" s="15">
         <v>18</v>
       </c>
-      <c r="O9" s="13" t="n">
+      <c r="O9" s="13">
         <v>12</v>
       </c>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="C10" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="D10" s="14" t="n">
+      <c r="B10" s="14">
+        <v>92</v>
+      </c>
+      <c r="C10" s="14">
+        <v>92</v>
+      </c>
+      <c r="D10" s="14">
         <v>92</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -2299,44 +2595,44 @@
       <c r="F10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="15">
         <v>18</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="15">
         <v>18</v>
       </c>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="15">
         <v>18</v>
       </c>
-      <c r="J10" s="15" t="n">
+      <c r="J10" s="15">
         <v>18</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="M10" s="15" t="n">
+      <c r="L10" s="14">
+        <v>92</v>
+      </c>
+      <c r="M10" s="15">
         <v>18</v>
       </c>
-      <c r="N10" s="15" t="n">
+      <c r="N10" s="15">
         <v>18</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="13" t="n">
+      <c r="P10" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="D11" s="14" t="n">
+      <c r="C11" s="14">
+        <v>92</v>
+      </c>
+      <c r="D11" s="14">
         <v>92</v>
       </c>
       <c r="E11" s="6"/>
@@ -2346,36 +2642,36 @@
       <c r="G11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="15">
         <v>18</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="18">
         <v>90</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="15" t="n">
+      <c r="L11" s="15">
         <v>18</v>
       </c>
-      <c r="M11" s="15" t="n">
+      <c r="M11" s="15">
         <v>18</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="13">
         <v>12</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="13">
         <v>12</v>
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="14">
         <v>92</v>
       </c>
       <c r="D12" s="6"/>
@@ -2386,29 +2682,29 @@
       <c r="G12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="15">
         <v>18</v>
       </c>
-      <c r="I12" s="18" t="n">
+      <c r="I12" s="18">
         <v>90</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="J12" s="13">
         <v>12</v>
       </c>
-      <c r="K12" s="15" t="n">
+      <c r="K12" s="15">
         <v>18</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="13">
         <v>12</v>
       </c>
-      <c r="M12" s="13" t="n">
+      <c r="M12" s="13">
         <v>12</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2418,12 +2714,12 @@
       <c r="G13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="18">
         <v>90</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="13">
         <v>12</v>
       </c>
       <c r="L13" s="6"/>
@@ -2432,7 +2728,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2442,7 +2738,7 @@
       <c r="G14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="18">
         <v>90</v>
       </c>
       <c r="I14" s="6"/>
@@ -2454,7 +2750,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2467,7 +2763,7 @@
       <c r="H15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="18" t="n">
+      <c r="I15" s="18">
         <v>90</v>
       </c>
       <c r="J15" s="6"/>
@@ -2478,7 +2774,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2487,13 +2783,13 @@
       <c r="F16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="18">
         <v>90</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="18" t="n">
+      <c r="I16" s="18">
         <v>90</v>
       </c>
       <c r="J16" s="6"/>
@@ -2505,34 +2801,24 @@
       <c r="P16" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.72959183673469"/>
+    <col min="1" max="16" width="5.7109375"/>
+    <col min="17" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2551,7 +2837,7 @@
       <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="n">
+      <c r="G1" s="11">
         <v>96</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -2582,7 +2868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -2595,22 +2881,22 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="G2" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="H2" s="11" t="n">
+      <c r="E2" s="11">
+        <v>96</v>
+      </c>
+      <c r="F2" s="11">
+        <v>96</v>
+      </c>
+      <c r="G2" s="14">
+        <v>92</v>
+      </c>
+      <c r="H2" s="11">
         <v>96</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="11">
         <v>96</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -2632,41 +2918,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="D3" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="E3" s="15" t="n">
+      <c r="C3" s="11">
+        <v>96</v>
+      </c>
+      <c r="D3" s="14">
+        <v>92</v>
+      </c>
+      <c r="E3" s="15">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="14">
         <v>92</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="I3" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="J3" s="14" t="n">
+      <c r="H3" s="14">
+        <v>92</v>
+      </c>
+      <c r="I3" s="11">
+        <v>96</v>
+      </c>
+      <c r="J3" s="14">
         <v>92</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="14">
         <v>92</v>
       </c>
       <c r="M3" s="6" t="s">
@@ -2682,44 +2968,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="C4" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="D4" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="E4" s="15" t="n">
+      <c r="B4" s="11">
+        <v>96</v>
+      </c>
+      <c r="C4" s="11">
+        <v>96</v>
+      </c>
+      <c r="D4" s="14">
+        <v>92</v>
+      </c>
+      <c r="E4" s="15">
         <v>18</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="15">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="I4" s="19" t="n">
+      <c r="G4" s="11">
+        <v>96</v>
+      </c>
+      <c r="H4" s="14">
+        <v>92</v>
+      </c>
+      <c r="I4" s="19">
         <v>18</v>
       </c>
-      <c r="J4" s="19" t="n">
+      <c r="J4" s="19">
         <v>18</v>
       </c>
-      <c r="K4" s="14" t="n">
+      <c r="K4" s="14">
         <v>92</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="14" t="n">
+      <c r="M4" s="14">
         <v>92</v>
       </c>
       <c r="N4" s="12" t="s">
@@ -2732,38 +3018,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="C5" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="D5" s="15" t="n">
+      <c r="B5" s="11">
+        <v>96</v>
+      </c>
+      <c r="C5" s="14">
+        <v>92</v>
+      </c>
+      <c r="D5" s="15">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="F5" s="15" t="n">
+      <c r="E5" s="11">
+        <v>96</v>
+      </c>
+      <c r="F5" s="15">
         <v>18</v>
       </c>
-      <c r="G5" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="H5" s="19" t="n">
+      <c r="G5" s="14">
+        <v>92</v>
+      </c>
+      <c r="H5" s="19">
         <v>18</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="K5" s="19" t="n">
+      <c r="J5" s="14">
+        <v>92</v>
+      </c>
+      <c r="K5" s="19">
         <v>18</v>
       </c>
       <c r="L5" s="16" t="s">
@@ -2772,7 +3058,7 @@
       <c r="M5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="15" t="n">
+      <c r="N5" s="15">
         <v>18</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -2782,23 +3068,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="B6" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="C6" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="D6" s="15" t="n">
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>96</v>
+      </c>
+      <c r="B6" s="14">
+        <v>92</v>
+      </c>
+      <c r="C6" s="11">
+        <v>96</v>
+      </c>
+      <c r="D6" s="15">
         <v>18</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="14">
         <v>92</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -2807,10 +3093,10 @@
       <c r="H6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="J6" s="19" t="n">
+      <c r="I6" s="14">
+        <v>92</v>
+      </c>
+      <c r="J6" s="19">
         <v>18</v>
       </c>
       <c r="K6" s="16" t="s">
@@ -2819,7 +3105,7 @@
       <c r="L6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="15" t="n">
+      <c r="M6" s="15">
         <v>19</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -2832,44 +3118,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>92</v>
+      </c>
+      <c r="B7" s="15">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="15">
         <v>18</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="G7" s="15" t="n">
+      <c r="E7" s="11">
+        <v>96</v>
+      </c>
+      <c r="F7" s="11">
+        <v>96</v>
+      </c>
+      <c r="G7" s="15">
         <v>18</v>
       </c>
-      <c r="H7" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="I7" s="14" t="n">
+      <c r="H7" s="14">
+        <v>92</v>
+      </c>
+      <c r="I7" s="14">
         <v>92</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="L7" s="15" t="n">
+      <c r="K7" s="14">
+        <v>92</v>
+      </c>
+      <c r="L7" s="15">
         <v>18</v>
       </c>
-      <c r="M7" s="15" t="n">
+      <c r="M7" s="15">
         <v>18</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -2882,23 +3168,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="B8" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="C8" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="E8" s="15" t="n">
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11">
+        <v>96</v>
+      </c>
+      <c r="C8" s="14">
+        <v>92</v>
+      </c>
+      <c r="D8" s="11">
+        <v>96</v>
+      </c>
+      <c r="E8" s="15">
         <v>18</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="15">
         <v>18</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -2910,19 +3196,19 @@
       <c r="I8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="K8" s="15" t="n">
+      <c r="J8" s="14">
+        <v>92</v>
+      </c>
+      <c r="K8" s="15">
         <v>18</v>
       </c>
-      <c r="L8" s="15" t="n">
+      <c r="L8" s="15">
         <v>18</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="14" t="n">
+      <c r="N8" s="14">
         <v>92</v>
       </c>
       <c r="O8" s="12" t="s">
@@ -2932,17 +3218,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="C9" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="D9" s="14" t="n">
+      <c r="B9" s="11">
+        <v>96</v>
+      </c>
+      <c r="C9" s="14">
+        <v>92</v>
+      </c>
+      <c r="D9" s="14">
         <v>92</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -2951,7 +3237,7 @@
       <c r="F9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="15">
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -2960,7 +3246,7 @@
       <c r="I9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="15">
         <v>18</v>
       </c>
       <c r="K9" s="12" t="s">
@@ -2969,7 +3255,7 @@
       <c r="L9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="14" t="n">
+      <c r="M9" s="14">
         <v>92</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -2982,44 +3268,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="n">
-        <v>96</v>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="E10" s="15" t="n">
+      <c r="C10" s="11">
+        <v>96</v>
+      </c>
+      <c r="D10" s="14">
+        <v>92</v>
+      </c>
+      <c r="E10" s="15">
         <v>18</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="15">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="15">
         <v>18</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="15">
         <v>18</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="15" t="n">
+      <c r="K10" s="15">
         <v>18</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="14" t="n">
+      <c r="M10" s="14">
         <v>92</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -3032,14 +3318,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="14">
         <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3063,13 +3349,13 @@
       <c r="J11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="21" t="n">
+      <c r="K11" s="21">
         <v>90</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="15" t="n">
+      <c r="M11" s="15">
         <v>18</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -3082,7 +3368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -3107,7 +3393,7 @@
       <c r="H12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="21" t="n">
+      <c r="I12" s="21">
         <v>90</v>
       </c>
       <c r="J12" s="20" t="s">
@@ -3116,7 +3402,7 @@
       <c r="K12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="15" t="n">
+      <c r="L12" s="15">
         <v>18</v>
       </c>
       <c r="M12" s="12" t="s">
@@ -3132,7 +3418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -3157,7 +3443,7 @@
       <c r="H13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="21" t="n">
+      <c r="I13" s="21">
         <v>90</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -3182,7 +3468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -3207,7 +3493,7 @@
       <c r="H14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="21" t="n">
+      <c r="I14" s="21">
         <v>90</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -3232,7 +3518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3543,7 @@
       <c r="H15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="21" t="n">
+      <c r="I15" s="21">
         <v>90</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -3282,7 +3568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -3307,7 +3593,7 @@
       <c r="H16" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="21" t="n">
+      <c r="I16" s="21">
         <v>90</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -3333,34 +3619,24 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.72959183673469"/>
+    <col min="1" max="16" width="5.7109375"/>
+    <col min="17" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -3410,7 +3686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -3460,7 +3736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3510,7 +3786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3560,7 +3836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3610,7 +3886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3660,7 +3936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -3710,7 +3986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
@@ -3760,7 +4036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
@@ -3810,7 +4086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
@@ -3860,7 +4136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
@@ -3910,7 +4186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>6</v>
       </c>
@@ -3960,7 +4236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -4010,7 +4286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -4060,7 +4336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -4110,7 +4386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -4161,49 +4437,39 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="24" width="3.62755102040816"/>
+    <col min="1" max="1025" width="3.5703125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="F1" s="3" t="n">
+      <c r="C1" s="2">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3">
         <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -4215,19 +4481,19 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="3">
         <v>96</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M1" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="N1" s="3" t="n">
+      <c r="L1" s="3">
+        <v>96</v>
+      </c>
+      <c r="M1" s="3">
+        <v>96</v>
+      </c>
+      <c r="N1" s="3">
         <v>96</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -4237,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
@@ -4287,7 +4553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
@@ -4337,7 +4603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
@@ -4387,7 +4653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
@@ -4437,7 +4703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4487,7 +4753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -4537,7 +4803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
@@ -4587,7 +4853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
@@ -4637,7 +4903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
@@ -4687,7 +4953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>7</v>
       </c>
@@ -4737,7 +5003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>7</v>
       </c>
@@ -4787,7 +5053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>7</v>
       </c>
@@ -4837,7 +5103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>7</v>
       </c>
@@ -4887,7 +5153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>7</v>
       </c>
@@ -4937,29 +5203,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>96</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="E16" s="3">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3">
         <v>96</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="3">
         <v>96</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -4968,13 +5234,13 @@
       <c r="J16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M16" s="3" t="n">
+      <c r="K16" s="3">
+        <v>96</v>
+      </c>
+      <c r="L16" s="3">
+        <v>96</v>
+      </c>
+      <c r="M16" s="3">
         <v>96</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -4988,523 +5254,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:O14">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:O14,B3:O9">
-    <cfRule type="containsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="containsText" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="containsText" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
-    <cfRule type="containsText" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="containsText" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" priority="134" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="containsText" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" priority="140" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="containsText" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" priority="143" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="containsText" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="containsText" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" priority="149" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="containsText" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" priority="152" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
-    <cfRule type="containsText" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" priority="155" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="containsText" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" priority="158" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" priority="161" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="containsText" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" priority="167" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="containsText" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" priority="170" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
-    <cfRule type="containsText" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5512,827 +5264,1727 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="7" style="24"/>
+    <col min="8" max="8" width="7" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="7" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:P16">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="x&quot;E0&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""E0"",",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",I3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:J4">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",G4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:K5">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:J6">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",G6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:J7">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",H8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.15"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="24" width="3.62755102040816"/>
+    <col min="1" max="7" width="7" style="24"/>
+    <col min="8" max="8" width="7" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-    </row>
-    <row r="4" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-    </row>
-    <row r="5" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-    </row>
-    <row r="8" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-    </row>
-    <row r="9" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-    </row>
-    <row r="10" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-    </row>
-    <row r="12" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="13" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-    </row>
-    <row r="14" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-    </row>
-    <row r="15" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-    </row>
-    <row r="16" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+    <row r="1" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2">
+        <v>92</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3">
+        <v>96</v>
+      </c>
+      <c r="M1" s="3">
+        <v>96</v>
+      </c>
+      <c r="N1" s="3">
+        <v>96</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3">
+        <v>96</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>96</v>
+      </c>
+      <c r="P2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2">
+        <v>92</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3">
+        <v>96</v>
+      </c>
+      <c r="P4" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>96</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>92</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>96</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>96</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="3">
+        <v>96</v>
+      </c>
+      <c r="P8" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3">
+        <v>96</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="3">
+        <v>96</v>
+      </c>
+      <c r="O9" s="3">
+        <v>96</v>
+      </c>
+      <c r="P9" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>96</v>
+      </c>
+      <c r="B10" s="3">
+        <v>96</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="3">
+        <v>96</v>
+      </c>
+      <c r="N10" s="2">
+        <v>92</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3">
+        <v>96</v>
+      </c>
+      <c r="D11" s="3">
+        <v>96</v>
+      </c>
+      <c r="E11" s="3">
+        <v>96</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="3">
+        <v>96</v>
+      </c>
+      <c r="M11" s="2">
+        <v>92</v>
+      </c>
+      <c r="N11" s="3">
+        <v>96</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>96</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>96</v>
+      </c>
+      <c r="D12" s="3">
+        <v>96</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>96</v>
+      </c>
+      <c r="N12" s="3">
+        <v>96</v>
+      </c>
+      <c r="O12" s="3">
+        <v>96</v>
+      </c>
+      <c r="P12" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3">
+        <v>96</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>96</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>96</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>96</v>
+      </c>
+      <c r="P13" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>96</v>
+      </c>
+      <c r="E14" s="3">
+        <v>96</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>92</v>
+      </c>
+      <c r="O14" s="3">
+        <v>96</v>
+      </c>
+      <c r="P14" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>96</v>
+      </c>
+      <c r="F15" s="3">
+        <v>96</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="3">
+        <v>96</v>
+      </c>
+      <c r="L15" s="2">
+        <v>92</v>
+      </c>
+      <c r="M15" s="2">
+        <v>92</v>
+      </c>
+      <c r="N15" s="3">
+        <v>96</v>
+      </c>
+      <c r="O15" s="3">
+        <v>96</v>
+      </c>
+      <c r="P15" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3">
+        <v>96</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>96</v>
+      </c>
+      <c r="L16" s="3">
+        <v>96</v>
+      </c>
+      <c r="M16" s="3">
+        <v>96</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:O14">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
+  <conditionalFormatting sqref="A1:P13 A14:E16 G14:P16 F14:F15">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x&quot;E0&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""E0"",",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:O14">
-    <cfRule type="containsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
+  <conditionalFormatting sqref="G4:J4">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
+  <conditionalFormatting sqref="F5:K5">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
+  <conditionalFormatting sqref="G6:J6">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
+  <conditionalFormatting sqref="G7:J7">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x&quot;00&quot;,">
+      <formula>NOT(ISERROR(SEARCH("x""00"",",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="containsText" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="containsText" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="containsText" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="containsText" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
-    <cfRule type="containsText" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="containsText" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" priority="134" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="containsText" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" priority="140" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="containsText" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" priority="143" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="containsText" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="containsText" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" priority="149" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="containsText" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" priority="152" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
-    <cfRule type="containsText" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" priority="155" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="containsText" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" priority="158" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" priority="161" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="containsText" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" priority="167" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="containsText" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" priority="170" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ff</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
-    <cfRule type="containsText" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#FF" dxfId="1"/>
-    <cfRule type="containsText" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="#00" dxfId="2"/>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Tiles/Tiles.xlsx
+++ b/Tiles/Tiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="135" windowWidth="12195" windowHeight="9975" activeTab="7"/>
+    <workbookView xWindow="11835" yWindow="135" windowWidth="12195" windowHeight="9975" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Grass" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="goal flag" sheetId="6" r:id="rId6"/>
     <sheet name="Curr pos" sheetId="7" r:id="rId7"/>
     <sheet name="Curr pos grass" sheetId="8" r:id="rId8"/>
+    <sheet name="Rainbow" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="21">
   <si>
     <t>D6</t>
   </si>
@@ -58,6 +58,33 @@
   </si>
   <si>
     <t>x"FF",</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>EA</t>
   </si>
 </sst>
 </file>
@@ -312,7 +339,2359 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="352">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF48FC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF48FC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF48D8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2448FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6C00AA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB424AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC6CAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF48D8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2448FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6C00AA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB424AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC6CAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC6C00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC6C00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -6078,42 +8457,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P16">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="x&quot;E0&quot;,">
+    <cfRule type="containsText" dxfId="351" priority="8" operator="containsText" text="x&quot;E0&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""E0"",",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="350" priority="7" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="349" priority="6" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:J4">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="348" priority="5" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:K5">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="347" priority="4" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:J6">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="346" priority="3" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J7">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="345" priority="2" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:I8">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="344" priority="1" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6130,8 +8509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6943,42 +9322,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P13 A14:E16 G14:P16 F14:F15">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="x&quot;E0&quot;,">
+    <cfRule type="containsText" dxfId="343" priority="8" operator="containsText" text="x&quot;E0&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""E0"",",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="342" priority="7" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="341" priority="6" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:J4">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="340" priority="5" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:K5">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="339" priority="4" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:J6">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="338" priority="3" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J7">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="337" priority="2" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:I8">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x&quot;00&quot;,">
+    <cfRule type="containsText" dxfId="336" priority="1" operator="containsText" text="x&quot;00&quot;,">
       <formula>NOT(ISERROR(SEARCH("x""00"",",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6989,4 +9368,7251 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BL33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL1" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL3" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL4" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL5" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL6" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL7" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL8" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL9" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL10" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL11" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL12" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL13" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE14" s="24">
+        <v>62</v>
+      </c>
+      <c r="AF14" s="24">
+        <v>62</v>
+      </c>
+      <c r="AG14" s="24">
+        <v>62</v>
+      </c>
+      <c r="AH14" s="24">
+        <v>62</v>
+      </c>
+      <c r="AI14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL14" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="24">
+        <v>62</v>
+      </c>
+      <c r="AD15" s="24">
+        <v>62</v>
+      </c>
+      <c r="AE15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI15" s="24">
+        <v>62</v>
+      </c>
+      <c r="AJ15" s="24">
+        <v>62</v>
+      </c>
+      <c r="AK15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL15" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="W16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" s="24">
+        <v>62</v>
+      </c>
+      <c r="AA16" s="24">
+        <v>62</v>
+      </c>
+      <c r="AB16" s="24">
+        <v>62</v>
+      </c>
+      <c r="AC16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK16" s="24">
+        <v>62</v>
+      </c>
+      <c r="AL16" s="24">
+        <v>62</v>
+      </c>
+      <c r="AM16" s="24">
+        <v>62</v>
+      </c>
+      <c r="AN16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL16" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="W17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="24">
+        <v>62</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN17" s="24">
+        <v>62</v>
+      </c>
+      <c r="AO17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL17" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="X18" s="24">
+        <v>62</v>
+      </c>
+      <c r="Y18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO18" s="24">
+        <v>62</v>
+      </c>
+      <c r="AP18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL18" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="24">
+        <v>62</v>
+      </c>
+      <c r="X19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP19" s="24">
+        <v>62</v>
+      </c>
+      <c r="AQ19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL19" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="U20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="24">
+        <v>62</v>
+      </c>
+      <c r="X20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP20" s="24">
+        <v>62</v>
+      </c>
+      <c r="AQ20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL20" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="U21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="24">
+        <v>62</v>
+      </c>
+      <c r="W21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ21" s="24">
+        <v>62</v>
+      </c>
+      <c r="AR21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT21" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL21" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="24">
+        <v>62</v>
+      </c>
+      <c r="W22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="X22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ22" s="24">
+        <v>62</v>
+      </c>
+      <c r="AR22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL22" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="24">
+        <v>62</v>
+      </c>
+      <c r="V23" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="W23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="X23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ23" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR23" s="24">
+        <v>62</v>
+      </c>
+      <c r="AS23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU23" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL23" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" s="24">
+        <v>62</v>
+      </c>
+      <c r="V24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR24" s="24">
+        <v>62</v>
+      </c>
+      <c r="AS24" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL24" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="24">
+        <v>62</v>
+      </c>
+      <c r="U25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS25" s="24">
+        <v>62</v>
+      </c>
+      <c r="AT25" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV25" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL25" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" s="24">
+        <v>62</v>
+      </c>
+      <c r="U26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ26" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS26" s="24">
+        <v>62</v>
+      </c>
+      <c r="AT26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL26" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL27" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL28" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL29" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL30" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL31" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL32" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL33" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:BL33">
+    <cfRule type="containsText" dxfId="335" priority="168" operator="containsText" text="DF">
+      <formula>NOT(ISERROR(SEARCH("DF",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BL33">
+    <cfRule type="containsText" dxfId="333" priority="167" operator="containsText" text="E8">
+      <formula>NOT(ISERROR(SEARCH("E8",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsText" dxfId="331" priority="166" operator="containsText" text="E0">
+      <formula>NOT(ISERROR(SEARCH("E0",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="329" priority="165" operator="containsText" text="E0">
+      <formula>NOT(ISERROR(SEARCH("E0",E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="containsText" dxfId="327" priority="164" operator="containsText" text="E0">
+      <formula>NOT(ISERROR(SEARCH("E0",E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
+    <cfRule type="cellIs" dxfId="325" priority="156" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13">
+    <cfRule type="cellIs" dxfId="323" priority="162" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12">
+    <cfRule type="cellIs" dxfId="321" priority="161" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12">
+    <cfRule type="cellIs" dxfId="319" priority="160" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11">
+    <cfRule type="cellIs" dxfId="317" priority="159" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11">
+    <cfRule type="cellIs" dxfId="315" priority="158" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11">
+    <cfRule type="cellIs" dxfId="313" priority="157" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="311" priority="155" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z10">
+    <cfRule type="cellIs" dxfId="309" priority="154" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9">
+    <cfRule type="cellIs" dxfId="307" priority="153" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9">
+    <cfRule type="cellIs" dxfId="305" priority="152" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10">
+    <cfRule type="cellIs" dxfId="303" priority="151" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9">
+    <cfRule type="cellIs" dxfId="301" priority="150" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9">
+    <cfRule type="cellIs" dxfId="299" priority="149" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9">
+    <cfRule type="cellIs" dxfId="297" priority="148" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="295" priority="147" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="293" priority="146" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="291" priority="145" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB8">
+    <cfRule type="cellIs" dxfId="289" priority="144" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC8">
+    <cfRule type="cellIs" dxfId="287" priority="143" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
+    <cfRule type="cellIs" dxfId="285" priority="142" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="283" priority="141" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="281" priority="140" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="279" priority="139" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="277" priority="138" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="cellIs" dxfId="275" priority="137" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="273" priority="136" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="271" priority="135" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="269" priority="134" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI8">
+    <cfRule type="cellIs" dxfId="267" priority="133" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
+    <cfRule type="cellIs" dxfId="265" priority="132" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="cellIs" dxfId="263" priority="131" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI9">
+    <cfRule type="cellIs" dxfId="261" priority="130" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
+    <cfRule type="cellIs" dxfId="259" priority="129" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="cellIs" dxfId="257" priority="128" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="255" priority="127" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="cellIs" dxfId="253" priority="126" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="251" priority="125" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="cellIs" dxfId="249" priority="124" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN10">
+    <cfRule type="cellIs" dxfId="247" priority="123" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO10">
+    <cfRule type="cellIs" dxfId="245" priority="122" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO11">
+    <cfRule type="cellIs" dxfId="243" priority="121" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP11">
+    <cfRule type="cellIs" dxfId="241" priority="120" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ11">
+    <cfRule type="cellIs" dxfId="239" priority="119" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ12">
+    <cfRule type="cellIs" dxfId="237" priority="118" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR12">
+    <cfRule type="cellIs" dxfId="235" priority="117" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR13">
+    <cfRule type="cellIs" dxfId="233" priority="116" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS13">
+    <cfRule type="cellIs" dxfId="231" priority="115" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS14">
+    <cfRule type="cellIs" dxfId="229" priority="114" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14">
+    <cfRule type="cellIs" dxfId="227" priority="113" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT15">
+    <cfRule type="cellIs" dxfId="225" priority="112" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT16">
+    <cfRule type="cellIs" dxfId="223" priority="111" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU16">
+    <cfRule type="cellIs" dxfId="221" priority="110" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU17">
+    <cfRule type="cellIs" dxfId="219" priority="109" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV17">
+    <cfRule type="cellIs" dxfId="217" priority="108" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV18">
+    <cfRule type="cellIs" dxfId="215" priority="107" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW18">
+    <cfRule type="cellIs" dxfId="213" priority="106" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV19">
+    <cfRule type="cellIs" dxfId="211" priority="105" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW19">
+    <cfRule type="cellIs" dxfId="209" priority="104" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW20">
+    <cfRule type="cellIs" dxfId="207" priority="103" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW21">
+    <cfRule type="cellIs" dxfId="205" priority="102" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX21">
+    <cfRule type="cellIs" dxfId="203" priority="101" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX22">
+    <cfRule type="cellIs" dxfId="201" priority="100" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX23">
+    <cfRule type="cellIs" dxfId="199" priority="99" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY23">
+    <cfRule type="cellIs" dxfId="197" priority="98" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="cellIs" dxfId="195" priority="97" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22">
+    <cfRule type="cellIs" dxfId="193" priority="96" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="cellIs" dxfId="191" priority="95" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="cellIs" dxfId="189" priority="94" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="187" priority="93" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
+    <cfRule type="cellIs" dxfId="185" priority="92" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="183" priority="91" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="181" priority="90" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="cellIs" dxfId="179" priority="89" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
+    <cfRule type="cellIs" dxfId="177" priority="88" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="cellIs" dxfId="175" priority="87" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="cellIs" dxfId="173" priority="86" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15">
+    <cfRule type="cellIs" dxfId="171" priority="85" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U15">
+    <cfRule type="cellIs" dxfId="169" priority="84" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14">
+    <cfRule type="cellIs" dxfId="167" priority="83" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="cellIs" dxfId="165" priority="82" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13">
+    <cfRule type="cellIs" dxfId="163" priority="81" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13">
+    <cfRule type="cellIs" dxfId="161" priority="80" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12">
+    <cfRule type="cellIs" dxfId="159" priority="79" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12">
+    <cfRule type="cellIs" dxfId="157" priority="78" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
+    <cfRule type="cellIs" dxfId="155" priority="77" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="cellIs" dxfId="153" priority="76" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11">
+    <cfRule type="cellIs" dxfId="151" priority="75" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11">
+    <cfRule type="cellIs" dxfId="149" priority="74" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11">
+    <cfRule type="cellIs" dxfId="147" priority="73" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10">
+    <cfRule type="cellIs" dxfId="145" priority="72" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
+    <cfRule type="cellIs" dxfId="143" priority="71" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD10">
+    <cfRule type="cellIs" dxfId="141" priority="70" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="139" priority="69" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="137" priority="68" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="135" priority="67" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="133" priority="66" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI10">
+    <cfRule type="cellIs" dxfId="131" priority="65" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="129" priority="64" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="cellIs" dxfId="127" priority="63" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="cellIs" dxfId="125" priority="62" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11">
+    <cfRule type="cellIs" dxfId="123" priority="61" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="121" priority="60" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN11">
+    <cfRule type="cellIs" dxfId="119" priority="59" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN12">
+    <cfRule type="cellIs" dxfId="117" priority="58" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO12">
+    <cfRule type="cellIs" dxfId="115" priority="57" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP12">
+    <cfRule type="cellIs" dxfId="113" priority="56" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP13">
+    <cfRule type="cellIs" dxfId="111" priority="55" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13">
+    <cfRule type="cellIs" dxfId="109" priority="54" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ14">
+    <cfRule type="cellIs" dxfId="107" priority="53" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR14">
+    <cfRule type="cellIs" dxfId="105" priority="52" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15">
+    <cfRule type="cellIs" dxfId="103" priority="51" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS15">
+    <cfRule type="cellIs" dxfId="101" priority="50" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS16">
+    <cfRule type="cellIs" dxfId="99" priority="49" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS17">
+    <cfRule type="cellIs" dxfId="97" priority="48" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT17">
+    <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT18">
+    <cfRule type="cellIs" dxfId="93" priority="46" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU18">
+    <cfRule type="cellIs" dxfId="91" priority="45" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU19">
+    <cfRule type="cellIs" dxfId="89" priority="44" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU20">
+    <cfRule type="cellIs" dxfId="87" priority="43" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV20">
+    <cfRule type="cellIs" dxfId="85" priority="42" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV21">
+    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV22">
+    <cfRule type="cellIs" dxfId="81" priority="40" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW22">
+    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW23">
+    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="75" priority="37" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="73" priority="36" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="71" priority="35" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
+    <cfRule type="cellIs" dxfId="69" priority="34" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19">
+    <cfRule type="cellIs" dxfId="67" priority="33" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="65" priority="32" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16">
+    <cfRule type="cellIs" dxfId="61" priority="30" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15">
+    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14">
+    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12">
+    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT19">
+    <cfRule type="cellIs" dxfId="47" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BL33">
+    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="EA">
+      <formula>NOT(ISERROR(SEARCH("EA",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="A6">
+      <formula>NOT(ISERROR(SEARCH("A6",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="18" operator="containsText" text="FB">
+      <formula>NOT(ISERROR(SEARCH("FB",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="20" operator="containsText" text="62">
+      <formula>NOT(ISERROR(SEARCH("62",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="2A">
+      <formula>NOT(ISERROR(SEARCH("2A",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="22" operator="containsText" text="5A">
+      <formula>NOT(ISERROR(SEARCH("5A",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BL33">
+    <cfRule type="containsText" dxfId="33" priority="163" operator="containsText" text="5F">
+      <formula>NOT(ISERROR(SEARCH("5F",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12">
+    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="FB">
+      <formula>NOT(ISERROR(SEARCH("FB",AB12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY24">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY25">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY26">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ26">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX24">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW24">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX25">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX26">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>